--- a/src/assets/students.xlsx
+++ b/src/assets/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final Project\version2\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE101C6-3C7B-4448-A4BF-B94E3C1CBFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98942E6-88BE-42C3-9A6D-97382EDB3AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>English name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Qualification year</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -422,9 +425,10 @@
     <col min="15" max="15" width="12.5" customWidth="1"/>
     <col min="16" max="16" width="13.375" customWidth="1"/>
     <col min="17" max="17" width="17.625" customWidth="1"/>
+    <col min="18" max="18" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,6 +479,9 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
